--- a/Pipeline/SSP5-8.5/banana_yield_predictions_2025-2034.xlsx
+++ b/Pipeline/SSP5-8.5/banana_yield_predictions_2025-2034.xlsx
@@ -804,7 +804,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T2">
-        <v>8.340452194213867</v>
+        <v>8.185477256774902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -866,7 +866,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T3">
-        <v>8.287708282470703</v>
+        <v>8.16750431060791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -928,7 +928,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T4">
-        <v>8.300898551940918</v>
+        <v>8.166426658630371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -990,7 +990,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T5">
-        <v>7.668256759643555</v>
+        <v>7.88252592086792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1052,7 +1052,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T6">
-        <v>6.15863561630249</v>
+        <v>5.9254150390625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1114,7 +1114,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T7">
-        <v>7.997258186340332</v>
+        <v>7.902036190032959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1238,7 +1238,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T9">
-        <v>6.068285942077637</v>
+        <v>6.085335731506348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1300,7 +1300,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T10">
-        <v>6.031031131744385</v>
+        <v>6.043787956237793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1362,7 +1362,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T11">
-        <v>7.296168327331543</v>
+        <v>7.20862340927124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2664,7 +2664,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T32">
-        <v>6.501440525054932</v>
+        <v>7.541501522064209</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2726,7 +2726,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T33">
-        <v>6.726950645446777</v>
+        <v>7.510910987854004</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2788,7 +2788,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T34">
-        <v>6.911653518676758</v>
+        <v>7.510801315307617</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2850,7 +2850,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T35">
-        <v>6.286386489868164</v>
+        <v>7.412696838378906</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2912,7 +2912,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T36">
-        <v>6.071229457855225</v>
+        <v>6.673810482025146</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2974,7 +2974,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T37">
-        <v>6.843633651733398</v>
+        <v>7.787154197692871</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3036,7 +3036,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T38">
-        <v>6.231764316558838</v>
+        <v>7.137906074523926</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3098,7 +3098,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T39">
-        <v>6.372135162353516</v>
+        <v>7.267562866210938</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3160,7 +3160,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T40">
-        <v>6.267843246459961</v>
+        <v>7.232346057891846</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3222,7 +3222,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T41">
-        <v>7.005553722381592</v>
+        <v>7.252567768096924</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3284,7 +3284,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T42">
-        <v>8.822265625</v>
+        <v>8.282312393188477</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3346,7 +3346,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T43">
-        <v>11.09914016723633</v>
+        <v>10.90718555450439</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3408,7 +3408,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T44">
-        <v>11.10924053192139</v>
+        <v>10.94995880126953</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3470,7 +3470,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T45">
-        <v>12.99809074401855</v>
+        <v>12.58820247650146</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3532,7 +3532,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T46">
-        <v>10.22117137908936</v>
+        <v>10.05107879638672</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3594,7 +3594,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T47">
-        <v>11.9543514251709</v>
+        <v>11.81924247741699</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3656,7 +3656,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T48">
-        <v>11.2229061126709</v>
+        <v>11.17276382446289</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3718,7 +3718,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T49">
-        <v>10.88468456268311</v>
+        <v>10.47041797637939</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3780,7 +3780,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T50">
-        <v>12.26114749908447</v>
+        <v>12.15935039520264</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3842,7 +3842,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T51">
-        <v>4.815446376800537</v>
+        <v>4.774109840393066</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3904,7 +3904,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T52">
-        <v>10.9319372177124</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4090,7 +4090,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T55">
-        <v>11.88350105285645</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4152,7 +4152,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T56">
-        <v>9.222385640000001</v>
+        <v>9.746142387390137</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4214,7 +4214,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T57">
-        <v>9.621708869934082</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4276,7 +4276,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T58">
-        <v>9.586543083190918</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4524,7 +4524,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T62">
-        <v>6.735572814941406</v>
+        <v>6.687766551971436</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4586,7 +4586,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T63">
-        <v>7.96629810333252</v>
+        <v>7.842373847961426</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4648,7 +4648,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T64">
-        <v>7.947180271148682</v>
+        <v>7.838108062744141</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4710,7 +4710,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T65">
-        <v>9.828118324279785</v>
+        <v>10.89429833</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4772,7 +4772,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T66">
-        <v>8.307311058044434</v>
+        <v>8.343512535095215</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4834,7 +4834,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T67">
-        <v>6.602509498596191</v>
+        <v>6.738480091094971</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4958,7 +4958,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T69">
-        <v>6.522246360778809</v>
+        <v>7.236350536346436</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5020,7 +5020,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T70">
-        <v>6.540622711181641</v>
+        <v>6.9822096824646</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5082,7 +5082,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T71">
-        <v>7.924749374389648</v>
+        <v>7.83756685256958</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5144,7 +5144,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T72">
-        <v>3.855730772018433</v>
+        <v>3.620653867721558</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5206,7 +5206,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T73">
-        <v>4.316064357757568</v>
+        <v>3.681335210800171</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5268,7 +5268,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T74">
-        <v>4.036515235900879</v>
+        <v>3.394684314727783</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5330,7 +5330,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T75">
-        <v>5.188682079315186</v>
+        <v>5.139847755432129</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5392,7 +5392,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T76">
-        <v>3.870607137680054</v>
+        <v>3.603261947631836</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5454,7 +5454,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T77">
-        <v>4.857997894287109</v>
+        <v>4.736416816711426</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5516,7 +5516,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T78">
-        <v>4.594933986663818</v>
+        <v>4.510468006134033</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5578,7 +5578,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T79">
-        <v>4.212883472442627</v>
+        <v>4.236428737640381</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5640,7 +5640,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T80">
-        <v>5.044933319091797</v>
+        <v>4.837909698486328</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5702,7 +5702,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T81">
-        <v>2.584766149520874</v>
+        <v>2.150733232498169</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5826,7 +5826,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T83">
-        <v>3.476857908</v>
+        <v>3.230926513671875</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5888,7 +5888,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T84">
-        <v>3.476857908</v>
+        <v>3.475990295410156</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6074,7 +6074,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T87">
-        <v>3.476857908</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6136,7 +6136,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T88">
-        <v>2.913371801376343</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6260,7 +6260,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T90">
-        <v>3.476857908</v>
+        <v>3.010561943054199</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6322,7 +6322,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T91">
-        <v>3.476857908</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6756,7 +6756,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T98">
-        <v>6.562248804</v>
+        <v>6.183632373809814</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -6818,7 +6818,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T99">
-        <v>6.172828197479248</v>
+        <v>5.650249004364014</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -6880,7 +6880,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T100">
-        <v>6.294886589050293</v>
+        <v>5.776280879974365</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -6942,7 +6942,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T101">
-        <v>6.304394245147705</v>
+        <v>5.747031688690186</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7004,7 +7004,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T102">
-        <v>4.844821453094482</v>
+        <v>5.100121974945068</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7066,7 +7066,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T103">
-        <v>5.86264705657959</v>
+        <v>7.093715667724609</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7128,7 +7128,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T104">
-        <v>4.882017612457275</v>
+        <v>5.110279560089111</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7190,7 +7190,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T105">
-        <v>5.655267715454102</v>
+        <v>7.019203662872314</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7252,7 +7252,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T106">
-        <v>2.503225564956665</v>
+        <v>2.829210758209229</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7314,7 +7314,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T107">
-        <v>8.230171203613281</v>
+        <v>9.306465256999999</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7438,7 +7438,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T109">
-        <v>5.053604125976562</v>
+        <v>5.253604412078857</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7500,7 +7500,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T110">
-        <v>9.306465256999999</v>
+        <v>8.816218376159668</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7562,7 +7562,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T111">
-        <v>4.452374458312988</v>
+        <v>4.32098388671875</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7872,7 +7872,7 @@
         <v>2.245849079025544</v>
       </c>
       <c r="T116">
-        <v>4.488957327</v>
+        <v>4.502474308013916</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8058,7 +8058,7 @@
         <v>2.245849079025544</v>
       </c>
       <c r="T119">
-        <v>4.862541198730469</v>
+        <v>4.488957327</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8244,7 +8244,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T122">
-        <v>6.024505138397217</v>
+        <v>4.996694087982178</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8306,7 +8306,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T123">
-        <v>5.617742538452148</v>
+        <v>4.996737480163574</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8368,7 +8368,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T124">
-        <v>5.552822589874268</v>
+        <v>4.941341400146484</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8430,7 +8430,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T125">
-        <v>6.406922817230225</v>
+        <v>6.412935733795166</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8492,7 +8492,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T126">
-        <v>5.436479091644287</v>
+        <v>4.769625186920166</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8554,7 +8554,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T127">
-        <v>5.521263122558594</v>
+        <v>5.403908252716064</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8616,7 +8616,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T128">
-        <v>5.905566215515137</v>
+        <v>5.911012172698975</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8678,7 +8678,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T129">
-        <v>5.268262386322021</v>
+        <v>4.918832778930664</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8740,7 +8740,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T130">
-        <v>5.287855625152588</v>
+        <v>4.958095073699951</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -8802,7 +8802,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T131">
-        <v>5.703862190246582</v>
+        <v>4.990565299987793</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -8864,7 +8864,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T132">
-        <v>11.36450235</v>
+        <v>11.36348915100098</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9112,7 +9112,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T136">
-        <v>8.451708793640137</v>
+        <v>8.932048797607422</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9236,7 +9236,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T138">
-        <v>7.84351921081543</v>
+        <v>7.700325489044189</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9298,7 +9298,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T139">
-        <v>10.55967235565186</v>
+        <v>10.82176780700684</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9360,7 +9360,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T140">
-        <v>10.2844934463501</v>
+        <v>10.52768898010254</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9546,7 +9546,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T143">
-        <v>14.45763301849365</v>
+        <v>13.88892936706543</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9608,7 +9608,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T144">
-        <v>14.60326524</v>
+        <v>14.30319690704346</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -9794,7 +9794,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T147">
-        <v>13.72860145568848</v>
+        <v>13.28656387329102</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10042,7 +10042,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T151">
-        <v>10.68981552124023</v>
+        <v>9.965920448303223</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10104,7 +10104,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T152">
-        <v>57.30874252319336</v>
+        <v>56.66042709350586</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10166,7 +10166,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T153">
-        <v>62.23488616943359</v>
+        <v>56.9156379699707</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10228,7 +10228,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T154">
-        <v>61.36560821533203</v>
+        <v>57.77314376831055</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -10290,7 +10290,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T155">
-        <v>56.34654418</v>
+        <v>57.57831573486328</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10476,7 +10476,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T158">
-        <v>58.02644348144531</v>
+        <v>57.27640151977539</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -10600,7 +10600,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T160">
-        <v>62.02198028564453</v>
+        <v>58.36281585693359</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -10662,7 +10662,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T161">
-        <v>62.22502899169922</v>
+        <v>56.95712661743164</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -10724,7 +10724,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T162">
-        <v>14.82060432434082</v>
+        <v>14.39421939849854</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -10786,7 +10786,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T163">
-        <v>14.64613246917725</v>
+        <v>14.0432186126709</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -10848,7 +10848,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T164">
-        <v>14.75636672973633</v>
+        <v>14.37630271911621</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -10910,7 +10910,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T165">
-        <v>13.33735752105713</v>
+        <v>12.72108364105225</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -10972,7 +10972,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T166">
-        <v>14.05224323272705</v>
+        <v>13.83499336242676</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -11034,7 +11034,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T167">
-        <v>13.08069038391113</v>
+        <v>12.34095859527588</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -11096,7 +11096,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T168">
-        <v>13.0649995803833</v>
+        <v>12.51818561553955</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -11158,7 +11158,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T169">
-        <v>13.58669853210449</v>
+        <v>13.14806365966797</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -11220,7 +11220,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T170">
-        <v>13.95886039733887</v>
+        <v>13.46444797515869</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -11282,7 +11282,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T171">
-        <v>15.78721618652344</v>
+        <v>15.20627975463867</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11344,7 +11344,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T172">
-        <v>11.73634910583496</v>
+        <v>12.86057758331299</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -11406,7 +11406,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T173">
-        <v>12.02675914764404</v>
+        <v>11.73607540130615</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -11468,7 +11468,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T174">
-        <v>11.8580265045166</v>
+        <v>12.79012107849121</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -11530,7 +11530,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T175">
-        <v>9.589526176452637</v>
+        <v>10.11506080627441</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -11592,7 +11592,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T176">
-        <v>12.02235889434814</v>
+        <v>13.22979640960693</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -11654,7 +11654,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T177">
-        <v>9.188951187000001</v>
+        <v>9.190678596496582</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -11716,7 +11716,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T178">
-        <v>11.15186023712158</v>
+        <v>11.51808452606201</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -11778,7 +11778,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T179">
-        <v>9.188951187000001</v>
+        <v>9.629488945007324</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -11840,7 +11840,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T180">
-        <v>11.45013427734375</v>
+        <v>11.80592155456543</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -11902,7 +11902,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T181">
-        <v>12.98799419403076</v>
+        <v>14.0564432144165</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -12088,7 +12088,7 @@
         <v>2.281992366412209</v>
       </c>
       <c r="T184">
-        <v>2.162145614624023</v>
+        <v>2.128557682037354</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -12522,7 +12522,7 @@
         <v>2.281992366412209</v>
       </c>
       <c r="T191">
-        <v>1.134462952613831</v>
+        <v>1.34015679359436</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -12708,7 +12708,7 @@
         <v>2.246245473908408</v>
       </c>
       <c r="T194">
-        <v>3.787154794</v>
+        <v>3.782267093658447</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -13142,7 +13142,7 @@
         <v>2.246245473908408</v>
       </c>
       <c r="T201">
-        <v>2.230076551437378</v>
+        <v>2.441200971603394</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -13824,7 +13824,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T212">
-        <v>8.893988609313965</v>
+        <v>7.892804145812988</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -13886,7 +13886,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T213">
-        <v>8.162370681762695</v>
+        <v>7.470816135406494</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -13948,7 +13948,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T214">
-        <v>8.785260200500488</v>
+        <v>8.579583168029785</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -14010,7 +14010,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T215">
-        <v>9.296751022338867</v>
+        <v>9.058060646057129</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -14072,7 +14072,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T216">
-        <v>7.394351959228516</v>
+        <v>7.470203399658203</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -14134,7 +14134,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T217">
-        <v>8.453625679016113</v>
+        <v>7.651958465576172</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -14196,7 +14196,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T218">
-        <v>8.50843334197998</v>
+        <v>7.668716430664062</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -14258,7 +14258,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T219">
-        <v>9.202192306518555</v>
+        <v>8.624808311462402</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -14320,7 +14320,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T220">
-        <v>9.232030868530273</v>
+        <v>8.581175804138184</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -14382,7 +14382,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T221">
-        <v>8.041613578796387</v>
+        <v>8.690849304199219</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -14444,7 +14444,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T222">
-        <v>3.402579853</v>
+        <v>3.367333173751831</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -14506,7 +14506,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T223">
-        <v>2.781822204589844</v>
+        <v>2.755882978439331</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -14568,7 +14568,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T224">
-        <v>2.885376214981079</v>
+        <v>2.883343458175659</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -14816,7 +14816,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T228">
-        <v>2.567595720291138</v>
+        <v>2.64064884185791</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -14878,7 +14878,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T229">
-        <v>3.185699224472046</v>
+        <v>3.402579853</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -14940,7 +14940,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T230">
-        <v>2.173982381820679</v>
+        <v>2.547833442687988</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -15064,7 +15064,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T232">
-        <v>5.968857765197754</v>
+        <v>5.719326496124268</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -15126,7 +15126,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T233">
-        <v>5.813378810882568</v>
+        <v>5.633734226226807</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -15188,7 +15188,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T234">
-        <v>5.945014476776123</v>
+        <v>5.689295768737793</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -15250,7 +15250,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T235">
-        <v>5.625020027160645</v>
+        <v>5.562343597412109</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -15312,7 +15312,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T236">
-        <v>5.420367240905762</v>
+        <v>5.176506042480469</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -15374,7 +15374,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T237">
-        <v>5.630472660064697</v>
+        <v>5.558334827423096</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -15436,7 +15436,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T238">
-        <v>5.938417434692383</v>
+        <v>5.97121524810791</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -15498,7 +15498,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T239">
-        <v>5.116270065307617</v>
+        <v>4.992136001586914</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -15560,7 +15560,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T240">
-        <v>5.136261940002441</v>
+        <v>4.94667387008667</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -15622,7 +15622,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T241">
-        <v>5.268474102020264</v>
+        <v>5.01075553894043</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -15746,7 +15746,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T243">
-        <v>9.13344669342041</v>
+        <v>8.731815338134766</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -15808,7 +15808,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T244">
-        <v>8.836219787597656</v>
+        <v>8.400751113891602</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -15932,7 +15932,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T246">
-        <v>9.638205822</v>
+        <v>9.268965721130371</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -15994,7 +15994,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T247">
-        <v>8.976905822753906</v>
+        <v>8.631224632263184</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -16056,7 +16056,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T248">
-        <v>9.638205822</v>
+        <v>9.435898780822754</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -16242,7 +16242,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T251">
-        <v>8.061549186706543</v>
+        <v>7.545061111450195</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -16428,7 +16428,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T254">
-        <v>37.39820626</v>
+        <v>38.02310943603516</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -16800,7 +16800,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T260">
-        <v>38.32402801513672</v>
+        <v>38.78523102</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -16862,7 +16862,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T261">
-        <v>37.39820626</v>
+        <v>38.04755401611328</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -16986,7 +16986,7 @@
         <v>1.739321596244127</v>
       </c>
       <c r="T263">
-        <v>17.25046471</v>
+        <v>16.52880859375</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -17048,7 +17048,7 @@
         <v>1.739321596244127</v>
       </c>
       <c r="T264">
-        <v>17.25046471</v>
+        <v>16.56526184082031</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -17544,7 +17544,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T272">
-        <v>36.96833419799805</v>
+        <v>39.77613067626953</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -17606,7 +17606,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T273">
-        <v>35.25772094726562</v>
+        <v>35.84518051147461</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -17668,7 +17668,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T274">
-        <v>37.49919128417969</v>
+        <v>38.33927917480469</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -17792,7 +17792,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T276">
-        <v>39.04877853393555</v>
+        <v>43.30569458007812</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -17854,7 +17854,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T277">
-        <v>34.4710578918457</v>
+        <v>34.40935134887695</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -17916,7 +17916,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T278">
-        <v>38.85541915893555</v>
+        <v>43.55274963378906</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -17978,7 +17978,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T279">
-        <v>45.77959442138672</v>
+        <v>49.60641479492188</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -18040,7 +18040,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T280">
-        <v>38.70672607421875</v>
+        <v>40.33726119995117</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -18102,7 +18102,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T281">
-        <v>33.86789449</v>
+        <v>37.18753433227539</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -18164,7 +18164,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T282">
-        <v>42.61668241</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="283" spans="1:20">
@@ -18350,7 +18350,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T285">
-        <v>42.61668241</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -18474,7 +18474,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T287">
-        <v>42.76057815551758</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -18598,7 +18598,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T289">
-        <v>42.62910461425781</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="290" spans="1:20">
@@ -18660,7 +18660,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T290">
-        <v>42.61668241</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -18846,7 +18846,7 @@
         <v>1.538442054958178</v>
       </c>
       <c r="T293">
-        <v>39.38465118408203</v>
+        <v>41.39923097</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -18908,7 +18908,7 @@
         <v>1.538442054958178</v>
       </c>
       <c r="T294">
-        <v>37.25205501</v>
+        <v>40.88345718383789</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -19342,7 +19342,7 @@
         <v>1.538442054958178</v>
       </c>
       <c r="T301">
-        <v>37.25205501</v>
+        <v>40.44765853881836</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -20582,7 +20582,7 @@
         <v>1.893559780312628</v>
       </c>
       <c r="T321">
-        <v>3.783051252365112</v>
+        <v>3.821401119232178</v>
       </c>
     </row>
     <row r="322" spans="1:20">
@@ -20644,7 +20644,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T322">
-        <v>10.01024341583252</v>
+        <v>11.72016143798828</v>
       </c>
     </row>
     <row r="323" spans="1:20">
@@ -20706,7 +20706,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T323">
-        <v>10.39457702636719</v>
+        <v>12.00397109985352</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -20768,7 +20768,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T324">
-        <v>10.50210094451904</v>
+        <v>12.01199913024902</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -20830,7 +20830,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T325">
-        <v>9.95868968963623</v>
+        <v>11.891526222229</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -20892,7 +20892,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T326">
-        <v>11.18847560882568</v>
+        <v>11.81956195831299</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20954,7 +20954,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T327">
-        <v>10.16209125518799</v>
+        <v>11.9559497833252</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -21016,7 +21016,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T328">
-        <v>10.36117362976074</v>
+        <v>12.1680736541748</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -21078,7 +21078,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T329">
-        <v>10.60645961761475</v>
+        <v>12.26202583312988</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -21140,7 +21140,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T330">
-        <v>10.56570243835449</v>
+        <v>12.20018482208252</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -21202,7 +21202,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T331">
-        <v>10.91376209259033</v>
+        <v>11.56726169586182</v>
       </c>
     </row>
     <row r="332" spans="1:20">
@@ -21450,7 +21450,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T335">
-        <v>7.778585433959961</v>
+        <v>7.109830856323242</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -21574,7 +21574,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T337">
-        <v>8.061291513</v>
+        <v>7.978069305419922</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -21698,7 +21698,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T339">
-        <v>8.061291513</v>
+        <v>7.551811695098877</v>
       </c>
     </row>
     <row r="340" spans="1:20">
@@ -21760,7 +21760,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T340">
-        <v>8.061291513</v>
+        <v>7.515722274780273</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -21884,7 +21884,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T342">
-        <v>5.761682033538818</v>
+        <v>5.852468013763428</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -21946,7 +21946,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T343">
-        <v>6.145173072814941</v>
+        <v>6.338966846466064</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -22008,7 +22008,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T344">
-        <v>5.589418888092041</v>
+        <v>5.561744689941406</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -22070,7 +22070,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T345">
-        <v>6.772619247436523</v>
+        <v>7.328144529</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -22132,7 +22132,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T346">
-        <v>6.160760402679443</v>
+        <v>6.190783500671387</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -22194,7 +22194,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T347">
-        <v>6.126055240631104</v>
+        <v>6.337477207183838</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -22318,7 +22318,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T349">
-        <v>5.317050933837891</v>
+        <v>7.328144529</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -22442,7 +22442,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T351">
-        <v>5.848276138305664</v>
+        <v>5.718331813812256</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -22752,7 +22752,7 @@
         <v>2.423351587301583</v>
       </c>
       <c r="T356">
-        <v>7.105589866638184</v>
+        <v>6.953430652618408</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -22938,7 +22938,7 @@
         <v>2.423351587301583</v>
       </c>
       <c r="T359">
-        <v>7.439442157745361</v>
+        <v>7.249811172485352</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -23186,7 +23186,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T363">
-        <v>10.7785034</v>
+        <v>10.12225246429443</v>
       </c>
     </row>
     <row r="364" spans="1:20">
@@ -23248,7 +23248,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T364">
-        <v>10.7260856628418</v>
+        <v>9.900748252868652</v>
       </c>
     </row>
     <row r="365" spans="1:20">
@@ -23372,7 +23372,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T366">
-        <v>10.41282749176025</v>
+        <v>9.944477081298828</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -23434,7 +23434,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T367">
-        <v>10.7785034</v>
+        <v>9.837915420532227</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -23496,7 +23496,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T368">
-        <v>10.7785034</v>
+        <v>9.803900718688965</v>
       </c>
     </row>
     <row r="369" spans="1:20">
@@ -23558,7 +23558,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T369">
-        <v>10.7785034</v>
+        <v>10.01255035400391</v>
       </c>
     </row>
     <row r="370" spans="1:20">
@@ -23620,7 +23620,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T370">
-        <v>10.7785034</v>
+        <v>9.913275718688965</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -23682,7 +23682,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T371">
-        <v>10.10565853118896</v>
+        <v>9.773280143737793</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -23992,7 +23992,7 @@
         <v>2.065863470613466</v>
       </c>
       <c r="T376">
-        <v>14.83954906463623</v>
+        <v>14.05216884613037</v>
       </c>
     </row>
     <row r="377" spans="1:20">
@@ -24364,7 +24364,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T382">
-        <v>4.204934120178223</v>
+        <v>5.21717643737793</v>
       </c>
     </row>
     <row r="383" spans="1:20">
@@ -24426,7 +24426,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T383">
-        <v>4.266602993011475</v>
+        <v>5.238680362701416</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -24488,7 +24488,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T384">
-        <v>4.28052282333374</v>
+        <v>5.240832328796387</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -24550,7 +24550,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T385">
-        <v>4.29764461517334</v>
+        <v>4.868112087249756</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -24612,7 +24612,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T386">
-        <v>4.528683185577393</v>
+        <v>5.385725975036621</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -24674,7 +24674,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T387">
-        <v>4.411975860595703</v>
+        <v>4.972426891326904</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -24736,7 +24736,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T388">
-        <v>4.789331912994385</v>
+        <v>5.782193732</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -24798,7 +24798,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T389">
-        <v>4.228554248809814</v>
+        <v>4.841516494750977</v>
       </c>
     </row>
     <row r="390" spans="1:20">
@@ -24860,7 +24860,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T390">
-        <v>4.099998474121094</v>
+        <v>4.999067783355713</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -24922,7 +24922,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T391">
-        <v>4.362942218780518</v>
+        <v>5.264054775238037</v>
       </c>
     </row>
     <row r="392" spans="1:20">
@@ -25232,7 +25232,7 @@
         <v>2.439696581196576</v>
       </c>
       <c r="T396">
-        <v>6.590213775634766</v>
+        <v>6.219308853149414</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -25666,7 +25666,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T403">
-        <v>2.72901725769043</v>
+        <v>2.378437995910645</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -25728,7 +25728,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T404">
-        <v>2.482202529907227</v>
+        <v>2.23987889289856</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -25852,7 +25852,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T406">
-        <v>2.418683767318726</v>
+        <v>2.239189147949219</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -26224,7 +26224,7 @@
         <v>1.591948377581115</v>
       </c>
       <c r="T412">
-        <v>32.30075759</v>
+        <v>32.52525329589844</v>
       </c>
     </row>
     <row r="413" spans="1:20">
@@ -26410,7 +26410,7 @@
         <v>1.591948377581115</v>
       </c>
       <c r="T415">
-        <v>32.30075759</v>
+        <v>34.45871447</v>
       </c>
     </row>
     <row r="416" spans="1:20">
@@ -26906,7 +26906,7 @@
         <v>1.515440643274849</v>
       </c>
       <c r="T423">
-        <v>21.97322482</v>
+        <v>21.55439758300781</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -27402,7 +27402,7 @@
         <v>1.515440643274849</v>
       </c>
       <c r="T431">
-        <v>21.02408599853516</v>
+        <v>21.97322482</v>
       </c>
     </row>
     <row r="432" spans="1:20">
@@ -27526,7 +27526,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T433">
-        <v>6.356745719909668</v>
+        <v>5.848762035369873</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -27588,7 +27588,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T434">
-        <v>7.063724517822266</v>
+        <v>6.460784912109375</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -27712,7 +27712,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T436">
-        <v>8.364402113000001</v>
+        <v>7.647300720214844</v>
       </c>
     </row>
     <row r="437" spans="1:20">
@@ -27774,7 +27774,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T437">
-        <v>6.042268753051758</v>
+        <v>5.558563232421875</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -28022,7 +28022,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T441">
-        <v>4.953513145446777</v>
+        <v>4.261344229</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -28332,7 +28332,7 @@
         <v>1.623689516129027</v>
       </c>
       <c r="T446">
-        <v>20.97550582885742</v>
+        <v>22.24996376037598</v>
       </c>
     </row>
     <row r="447" spans="1:20">
@@ -28518,7 +28518,7 @@
         <v>1.623689516129027</v>
       </c>
       <c r="T449">
-        <v>21.3460636138916</v>
+        <v>24.36534123</v>
       </c>
     </row>
     <row r="450" spans="1:20">
@@ -28704,7 +28704,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T452">
-        <v>17.71496391296387</v>
+        <v>20.7139835357666</v>
       </c>
     </row>
     <row r="453" spans="1:20">
@@ -28766,7 +28766,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T453">
-        <v>16.22994995117188</v>
+        <v>17.67238616943359</v>
       </c>
     </row>
     <row r="454" spans="1:20">
@@ -28828,7 +28828,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T454">
-        <v>16.1572322845459</v>
+        <v>17.73907852172852</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -28890,7 +28890,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T455">
-        <v>17.85502624511719</v>
+        <v>16.76988792419434</v>
       </c>
     </row>
     <row r="456" spans="1:20">
@@ -28952,7 +28952,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T456">
-        <v>16.23055648803711</v>
+        <v>17.21337890625</v>
       </c>
     </row>
     <row r="457" spans="1:20">
@@ -29014,7 +29014,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T457">
-        <v>17.11417770385742</v>
+        <v>17.51187515258789</v>
       </c>
     </row>
     <row r="458" spans="1:20">
@@ -29076,7 +29076,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T458">
-        <v>17.41979026794434</v>
+        <v>19.86709976196289</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -29138,7 +29138,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T459">
-        <v>17.30387496948242</v>
+        <v>20.80315589904785</v>
       </c>
     </row>
     <row r="460" spans="1:20">
@@ -29200,7 +29200,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T460">
-        <v>16.46888160705566</v>
+        <v>18.13973999023438</v>
       </c>
     </row>
     <row r="461" spans="1:20">
@@ -29262,7 +29262,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T461">
-        <v>16.34229278564453</v>
+        <v>17.76747703552246</v>
       </c>
     </row>
     <row r="462" spans="1:20">
@@ -29758,7 +29758,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T469">
-        <v>1.781390070915222</v>
+        <v>1.626616239547729</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -29882,7 +29882,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T471">
-        <v>1.180729389190674</v>
+        <v>1.386958479881287</v>
       </c>
     </row>
     <row r="472" spans="1:20">
@@ -29944,7 +29944,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T472">
-        <v>4.076315402984619</v>
+        <v>4.630214691162109</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -30006,7 +30006,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T473">
-        <v>3.862976551055908</v>
+        <v>3.6848464012146</v>
       </c>
     </row>
     <row r="474" spans="1:20">
@@ -30130,7 +30130,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T475">
-        <v>5.209852695465088</v>
+        <v>5.224677</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -30192,7 +30192,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T476">
-        <v>3.218933582305908</v>
+        <v>3.302357912063599</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -30254,7 +30254,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T477">
-        <v>3.301420450210571</v>
+        <v>3.303924560546875</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -30316,7 +30316,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T478">
-        <v>3.393357276916504</v>
+        <v>3.648934841156006</v>
       </c>
     </row>
     <row r="479" spans="1:20">
@@ -30378,7 +30378,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T479">
-        <v>3.856357574462891</v>
+        <v>4.246644020080566</v>
       </c>
     </row>
     <row r="480" spans="1:20">
@@ -30440,7 +30440,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T480">
-        <v>3.740702629089355</v>
+        <v>4.108651638031006</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -30626,7 +30626,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T483">
-        <v>15.08316707611084</v>
+        <v>15.78952026367188</v>
       </c>
     </row>
     <row r="484" spans="1:20">
@@ -30812,7 +30812,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T486">
-        <v>15.63272762298584</v>
+        <v>16.50629723</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -30874,7 +30874,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T487">
-        <v>15.19829750061035</v>
+        <v>15.91373252868652</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -31122,7 +31122,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T491">
-        <v>13.32298946380615</v>
+        <v>13.96362495422363</v>
       </c>
     </row>
     <row r="492" spans="1:20">
@@ -31246,7 +31246,7 @@
         <v>1.711300731869591</v>
       </c>
       <c r="T493">
-        <v>12.17767238616943</v>
+        <v>13.69089794</v>
       </c>
     </row>
     <row r="494" spans="1:20">
@@ -31494,7 +31494,7 @@
         <v>1.711300731869591</v>
       </c>
       <c r="T497">
-        <v>12.90111446380615</v>
+        <v>12.95972156524658</v>
       </c>
     </row>
     <row r="498" spans="1:20">
@@ -31742,7 +31742,7 @@
         <v>1.711300731869591</v>
       </c>
       <c r="T501">
-        <v>11.1859769821167</v>
+        <v>10.48992919921875</v>
       </c>
     </row>
     <row r="502" spans="1:20">
@@ -31804,7 +31804,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T502">
-        <v>7.548171520233154</v>
+        <v>7.133504390716553</v>
       </c>
     </row>
     <row r="503" spans="1:20">
@@ -31866,7 +31866,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T503">
-        <v>7.415018081665039</v>
+        <v>7.045365333557129</v>
       </c>
     </row>
     <row r="504" spans="1:20">
@@ -31928,7 +31928,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T504">
-        <v>7.476523399353027</v>
+        <v>7.084444046020508</v>
       </c>
     </row>
     <row r="505" spans="1:20">
@@ -31990,7 +31990,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T505">
-        <v>6.809704303741455</v>
+        <v>6.612433910369873</v>
       </c>
     </row>
     <row r="506" spans="1:20">
@@ -32052,7 +32052,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T506">
-        <v>7.186271667480469</v>
+        <v>6.857348918914795</v>
       </c>
     </row>
     <row r="507" spans="1:20">
@@ -32114,7 +32114,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T507">
-        <v>7.052615642547607</v>
+        <v>6.7955002784729</v>
       </c>
     </row>
     <row r="508" spans="1:20">
@@ -32176,7 +32176,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T508">
-        <v>6.618430614471436</v>
+        <v>6.553302764892578</v>
       </c>
     </row>
     <row r="509" spans="1:20">
@@ -32238,7 +32238,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T509">
-        <v>6.958155632019043</v>
+        <v>6.702034473419189</v>
       </c>
     </row>
     <row r="510" spans="1:20">
@@ -32300,7 +32300,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T510">
-        <v>7.026517868041992</v>
+        <v>6.752537250518799</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -32362,7 +32362,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T511">
-        <v>7.522453308105469</v>
+        <v>7.109942436218262</v>
       </c>
     </row>
     <row r="512" spans="1:20">
@@ -32486,7 +32486,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T513">
-        <v>9.824847221374512</v>
+        <v>10.14602088928223</v>
       </c>
     </row>
     <row r="514" spans="1:20">
@@ -32548,7 +32548,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T514">
-        <v>9.117277145385742</v>
+        <v>9.600963592529297</v>
       </c>
     </row>
     <row r="515" spans="1:20">
@@ -32672,7 +32672,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T516">
-        <v>10.31123417</v>
+        <v>9.935308456420898</v>
       </c>
     </row>
     <row r="517" spans="1:20">
@@ -32920,7 +32920,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T520">
-        <v>10.31123417</v>
+        <v>9.890195846557617</v>
       </c>
     </row>
     <row r="521" spans="1:20">
@@ -32982,7 +32982,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T521">
-        <v>9.518636703491211</v>
+        <v>8.875844955444336</v>
       </c>
     </row>
     <row r="522" spans="1:20">
@@ -33106,7 +33106,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T523">
-        <v>8.590715408325195</v>
+        <v>9.308773994445801</v>
       </c>
     </row>
     <row r="524" spans="1:20">
@@ -33168,7 +33168,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T524">
-        <v>8.110689163208008</v>
+        <v>8.54233455657959</v>
       </c>
     </row>
     <row r="525" spans="1:20">
@@ -33292,7 +33292,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T526">
-        <v>10.33981793</v>
+        <v>10.25464630126953</v>
       </c>
     </row>
     <row r="527" spans="1:20">
@@ -33354,7 +33354,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T527">
-        <v>9.051760673522949</v>
+        <v>9.56546688079834</v>
       </c>
     </row>
     <row r="528" spans="1:20">
@@ -33602,7 +33602,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T531">
-        <v>8.637328147888184</v>
+        <v>7.655665731</v>
       </c>
     </row>
     <row r="532" spans="1:20">
@@ -33664,7 +33664,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T532">
-        <v>26.9270076751709</v>
+        <v>26.24597199</v>
       </c>
     </row>
     <row r="533" spans="1:20">
@@ -33726,7 +33726,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T533">
-        <v>35.4405632019043</v>
+        <v>35.70494842529297</v>
       </c>
     </row>
     <row r="534" spans="1:20">
@@ -33788,7 +33788,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T534">
-        <v>29.11606788635254</v>
+        <v>29.7191219329834</v>
       </c>
     </row>
     <row r="535" spans="1:20">
@@ -33850,7 +33850,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T535">
-        <v>40.69304656982422</v>
+        <v>41.95776151</v>
       </c>
     </row>
     <row r="536" spans="1:20">
@@ -33974,7 +33974,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T537">
-        <v>39.41798782348633</v>
+        <v>41.2077751159668</v>
       </c>
     </row>
     <row r="538" spans="1:20">
@@ -34036,7 +34036,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T538">
-        <v>27.38750839233398</v>
+        <v>28.11881637573242</v>
       </c>
     </row>
     <row r="539" spans="1:20">
@@ -34160,7 +34160,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T540">
-        <v>28.80628395080566</v>
+        <v>30.62666320800781</v>
       </c>
     </row>
     <row r="541" spans="1:20">
@@ -34470,7 +34470,7 @@
         <v>1.957299779977992</v>
       </c>
       <c r="T545">
-        <v>3.705057621002197</v>
+        <v>3.730628728866577</v>
       </c>
     </row>
     <row r="546" spans="1:20">
@@ -34904,7 +34904,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T552">
-        <v>10.18199443817139</v>
+        <v>10.45950603485107</v>
       </c>
     </row>
     <row r="553" spans="1:20">
@@ -34966,7 +34966,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T553">
-        <v>11.49045181274414</v>
+        <v>12.05461597442627</v>
       </c>
     </row>
     <row r="554" spans="1:20">
@@ -35028,7 +35028,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T554">
-        <v>11.28221225738525</v>
+        <v>11.83642578125</v>
       </c>
     </row>
     <row r="555" spans="1:20">
@@ -35090,7 +35090,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T555">
-        <v>11.93505001068115</v>
+        <v>11.49634265899658</v>
       </c>
     </row>
     <row r="556" spans="1:20">
@@ -35152,7 +35152,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T556">
-        <v>10.96385097503662</v>
+        <v>10.74990653991699</v>
       </c>
     </row>
     <row r="557" spans="1:20">
@@ -35214,7 +35214,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T557">
-        <v>11.02985668182373</v>
+        <v>10.69342422485352</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -35276,7 +35276,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T558">
-        <v>12.61553323</v>
+        <v>12.35116958618164</v>
       </c>
     </row>
     <row r="559" spans="1:20">
@@ -35338,7 +35338,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T559">
-        <v>11.88524723052979</v>
+        <v>11.23906517028809</v>
       </c>
     </row>
     <row r="560" spans="1:20">
@@ -35400,7 +35400,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T560">
-        <v>11.40420436859131</v>
+        <v>10.80972576141357</v>
       </c>
     </row>
     <row r="561" spans="1:20">
@@ -35524,7 +35524,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T562">
-        <v>14.48157691955566</v>
+        <v>14.26999187469482</v>
       </c>
     </row>
     <row r="563" spans="1:20">
@@ -35586,7 +35586,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T563">
-        <v>15.08285522460938</v>
+        <v>14.79983043670654</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -35648,7 +35648,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T564">
-        <v>14.4567699432373</v>
+        <v>14.00030708312988</v>
       </c>
     </row>
     <row r="565" spans="1:20">
@@ -35710,7 +35710,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T565">
-        <v>15.22001934051514</v>
+        <v>15.24612331390381</v>
       </c>
     </row>
     <row r="566" spans="1:20">
@@ -35772,7 +35772,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T566">
-        <v>14.12820243835449</v>
+        <v>13.80736923217773</v>
       </c>
     </row>
     <row r="567" spans="1:20">
@@ -35834,7 +35834,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T567">
-        <v>15.92890167236328</v>
+        <v>15.2940845489502</v>
       </c>
     </row>
     <row r="568" spans="1:20">
@@ -35896,7 +35896,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T568">
-        <v>15.69282150268555</v>
+        <v>15.14879894256592</v>
       </c>
     </row>
     <row r="569" spans="1:20">
@@ -35958,7 +35958,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T569">
-        <v>14.95704078674316</v>
+        <v>14.51596260070801</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -36020,7 +36020,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T570">
-        <v>14.85539436340332</v>
+        <v>14.41772747039795</v>
       </c>
     </row>
     <row r="571" spans="1:20">
@@ -36082,7 +36082,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T571">
-        <v>13.77652168273926</v>
+        <v>13.40224933624268</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -36144,7 +36144,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T572">
-        <v>4.375892639160156</v>
+        <v>4.712504863739014</v>
       </c>
     </row>
     <row r="573" spans="1:20">
@@ -36206,7 +36206,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T573">
-        <v>4.356523513793945</v>
+        <v>4.708076000213623</v>
       </c>
     </row>
     <row r="574" spans="1:20">
@@ -36268,7 +36268,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T574">
-        <v>4.444609642028809</v>
+        <v>4.712978363037109</v>
       </c>
     </row>
     <row r="575" spans="1:20">
@@ -36392,7 +36392,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T576">
-        <v>4.991365639</v>
+        <v>4.655694961547852</v>
       </c>
     </row>
     <row r="577" spans="1:20">
@@ -36454,7 +36454,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T577">
-        <v>4.598875522613525</v>
+        <v>4.763900279998779</v>
       </c>
     </row>
     <row r="578" spans="1:20">
@@ -36516,7 +36516,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T578">
-        <v>4.212733268737793</v>
+        <v>4.579964160919189</v>
       </c>
     </row>
     <row r="579" spans="1:20">
@@ -36578,7 +36578,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T579">
-        <v>4.726480960845947</v>
+        <v>4.66663122177124</v>
       </c>
     </row>
     <row r="580" spans="1:20">
@@ -36640,7 +36640,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T580">
-        <v>4.62501859664917</v>
+        <v>4.647692680358887</v>
       </c>
     </row>
     <row r="581" spans="1:20">
@@ -36702,7 +36702,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T581">
-        <v>4.991365639</v>
+        <v>4.687230110168457</v>
       </c>
     </row>
     <row r="582" spans="1:20">
@@ -36764,7 +36764,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T582">
-        <v>5.295057773590088</v>
+        <v>5.854660511016846</v>
       </c>
     </row>
     <row r="583" spans="1:20">
@@ -36826,7 +36826,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T583">
-        <v>5.342344284057617</v>
+        <v>5.930439472198486</v>
       </c>
     </row>
     <row r="584" spans="1:20">
@@ -36888,7 +36888,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T584">
-        <v>6.178738594055176</v>
+        <v>6.562826156616211</v>
       </c>
     </row>
     <row r="585" spans="1:20">
@@ -36950,7 +36950,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T585">
-        <v>9.276811599731445</v>
+        <v>9.181462287902832</v>
       </c>
     </row>
     <row r="586" spans="1:20">
@@ -37012,7 +37012,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T586">
-        <v>4.620889663696289</v>
+        <v>4.429947376251221</v>
       </c>
     </row>
     <row r="587" spans="1:20">
@@ -37074,7 +37074,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T587">
-        <v>5.116533279418945</v>
+        <v>5.886827945709229</v>
       </c>
     </row>
     <row r="588" spans="1:20">
@@ -37136,7 +37136,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T588">
-        <v>5.19428825378418</v>
+        <v>5.872966766357422</v>
       </c>
     </row>
     <row r="589" spans="1:20">
@@ -37198,7 +37198,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T589">
-        <v>3.911879777908325</v>
+        <v>4.506445407867432</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -37260,7 +37260,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T590">
-        <v>4.899762153625488</v>
+        <v>5.47828197479248</v>
       </c>
     </row>
     <row r="591" spans="1:20">
@@ -37322,7 +37322,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T591">
-        <v>6.036865234375</v>
+        <v>5.667434692382812</v>
       </c>
     </row>
     <row r="592" spans="1:20">
@@ -37384,7 +37384,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T592">
-        <v>4.320353031158447</v>
+        <v>3.920080661773682</v>
       </c>
     </row>
     <row r="593" spans="1:20">
@@ -37446,7 +37446,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T593">
-        <v>4.876479148864746</v>
+        <v>4.023051738739014</v>
       </c>
     </row>
     <row r="594" spans="1:20">
@@ -37508,7 +37508,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T594">
-        <v>4.798000335693359</v>
+        <v>4.057548046112061</v>
       </c>
     </row>
     <row r="595" spans="1:20">
@@ -37570,7 +37570,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T595">
-        <v>7.562134348</v>
+        <v>4.84752893447876</v>
       </c>
     </row>
     <row r="596" spans="1:20">
@@ -37632,7 +37632,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T596">
-        <v>4.871091842651367</v>
+        <v>4.64439868927002</v>
       </c>
     </row>
     <row r="597" spans="1:20">
@@ -37694,7 +37694,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T597">
-        <v>4.740036487579346</v>
+        <v>4.455276966094971</v>
       </c>
     </row>
     <row r="598" spans="1:20">
@@ -37756,7 +37756,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T598">
-        <v>4.862985134124756</v>
+        <v>3.97679615020752</v>
       </c>
     </row>
     <row r="599" spans="1:20">
@@ -37818,7 +37818,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T599">
-        <v>4.375001430511475</v>
+        <v>3.880249500274658</v>
       </c>
     </row>
     <row r="600" spans="1:20">
@@ -37880,7 +37880,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T600">
-        <v>4.471930503845215</v>
+        <v>4.069239616394043</v>
       </c>
     </row>
     <row r="601" spans="1:20">
@@ -37942,7 +37942,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T601">
-        <v>4.708702564239502</v>
+        <v>4.386338710784912</v>
       </c>
     </row>
     <row r="602" spans="1:20">
@@ -38004,7 +38004,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T602">
-        <v>4.996461868286133</v>
+        <v>5.076953411102295</v>
       </c>
     </row>
     <row r="603" spans="1:20">
@@ -38066,7 +38066,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T603">
-        <v>4.804315567016602</v>
+        <v>4.877840518951416</v>
       </c>
     </row>
     <row r="604" spans="1:20">
@@ -38128,7 +38128,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T604">
-        <v>4.843862533569336</v>
+        <v>4.925567626953125</v>
       </c>
     </row>
     <row r="605" spans="1:20">
@@ -38190,7 +38190,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T605">
-        <v>5.41112756729126</v>
+        <v>5.259159564971924</v>
       </c>
     </row>
     <row r="606" spans="1:20">
@@ -38252,7 +38252,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T606">
-        <v>5.336833477020264</v>
+        <v>5.235663890838623</v>
       </c>
     </row>
     <row r="607" spans="1:20">
@@ -38314,7 +38314,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T607">
-        <v>5.324676513671875</v>
+        <v>5.257023811340332</v>
       </c>
     </row>
     <row r="608" spans="1:20">
@@ -38376,7 +38376,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T608">
-        <v>5.58078145980835</v>
+        <v>5.502459049224854</v>
       </c>
     </row>
     <row r="609" spans="1:20">
@@ -38438,7 +38438,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T609">
-        <v>5.412637233734131</v>
+        <v>5.235838413238525</v>
       </c>
     </row>
     <row r="610" spans="1:20">
@@ -38500,7 +38500,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T610">
-        <v>5.040097236633301</v>
+        <v>5.05336856842041</v>
       </c>
     </row>
     <row r="611" spans="1:20">
@@ -38562,7 +38562,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T611">
-        <v>4.958354949951172</v>
+        <v>4.965600490570068</v>
       </c>
     </row>
     <row r="612" spans="1:20">
@@ -38624,7 +38624,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T612">
-        <v>5.011834466</v>
+        <v>4.831845760345459</v>
       </c>
     </row>
     <row r="613" spans="1:20">
@@ -38686,7 +38686,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T613">
-        <v>4.798230648040771</v>
+        <v>4.697726249694824</v>
       </c>
     </row>
     <row r="614" spans="1:20">
@@ -38748,7 +38748,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T614">
-        <v>4.818711757659912</v>
+        <v>4.720861434936523</v>
       </c>
     </row>
     <row r="615" spans="1:20">
@@ -38810,7 +38810,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T615">
-        <v>4.675470352172852</v>
+        <v>4.547158718109131</v>
       </c>
     </row>
     <row r="616" spans="1:20">
@@ -38872,7 +38872,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T616">
-        <v>4.807388782501221</v>
+        <v>4.695415496826172</v>
       </c>
     </row>
     <row r="617" spans="1:20">
@@ -38934,7 +38934,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T617">
-        <v>4.600378036499023</v>
+        <v>4.536363636</v>
       </c>
     </row>
     <row r="618" spans="1:20">
@@ -39058,7 +39058,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T619">
-        <v>4.758107662200928</v>
+        <v>4.622188568115234</v>
       </c>
     </row>
     <row r="620" spans="1:20">
@@ -39120,7 +39120,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T620">
-        <v>4.763055801391602</v>
+        <v>4.612217426300049</v>
       </c>
     </row>
     <row r="621" spans="1:20">
@@ -39182,7 +39182,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T621">
-        <v>4.938541889190674</v>
+        <v>4.706850528717041</v>
       </c>
     </row>
     <row r="622" spans="1:20">
@@ -39492,7 +39492,7 @@
         <v>2.405435254803671</v>
       </c>
       <c r="T626">
-        <v>3.355861186981201</v>
+        <v>3.389283418655396</v>
       </c>
     </row>
     <row r="627" spans="1:20">
@@ -39616,7 +39616,7 @@
         <v>2.405435254803671</v>
       </c>
       <c r="T628">
-        <v>3.09605860710144</v>
+        <v>2.979728937149048</v>
       </c>
     </row>
     <row r="629" spans="1:20">
@@ -39678,7 +39678,7 @@
         <v>2.405435254803671</v>
       </c>
       <c r="T629">
-        <v>3.504093408584595</v>
+        <v>3.518718172</v>
       </c>
     </row>
     <row r="630" spans="1:20">
@@ -39740,7 +39740,7 @@
         <v>2.405435254803671</v>
       </c>
       <c r="T630">
-        <v>3.087826728820801</v>
+        <v>2.811938285827637</v>
       </c>
     </row>
     <row r="631" spans="1:20">
@@ -39864,7 +39864,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T632">
-        <v>11.08460998535156</v>
+        <v>10.05225276947021</v>
       </c>
     </row>
     <row r="633" spans="1:20">
@@ -39926,7 +39926,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T633">
-        <v>11.81070518493652</v>
+        <v>10.74153423309326</v>
       </c>
     </row>
     <row r="634" spans="1:20">
@@ -39988,7 +39988,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T634">
-        <v>11.17631149291992</v>
+        <v>10.15730094909668</v>
       </c>
     </row>
     <row r="635" spans="1:20">
@@ -40050,7 +40050,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T635">
-        <v>12.53282341</v>
+        <v>12.0468053817749</v>
       </c>
     </row>
     <row r="636" spans="1:20">
@@ -40112,7 +40112,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T636">
-        <v>9.86268138885498</v>
+        <v>9.191390991210938</v>
       </c>
     </row>
     <row r="637" spans="1:20">
@@ -40174,7 +40174,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T637">
-        <v>12.53282341</v>
+        <v>11.53055667877197</v>
       </c>
     </row>
     <row r="638" spans="1:20">
@@ -40236,7 +40236,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T638">
-        <v>10.70287227630615</v>
+        <v>9.24921989440918</v>
       </c>
     </row>
     <row r="639" spans="1:20">
@@ -40298,7 +40298,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T639">
-        <v>10.18955898284912</v>
+        <v>9.011388778686523</v>
       </c>
     </row>
     <row r="640" spans="1:20">
@@ -40360,7 +40360,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T640">
-        <v>10.98441505432129</v>
+        <v>9.972207069396973</v>
       </c>
     </row>
     <row r="641" spans="1:20">
@@ -40422,7 +40422,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T641">
-        <v>8.954693794250488</v>
+        <v>7.515213966369629</v>
       </c>
     </row>
     <row r="642" spans="1:20">
@@ -40546,7 +40546,7 @@
         <v>1.89029585006693</v>
       </c>
       <c r="T643">
-        <v>1.509975514</v>
+        <v>1.63641345500946</v>
       </c>
     </row>
     <row r="644" spans="1:20">
@@ -41166,7 +41166,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T653">
-        <v>4.475468082</v>
+        <v>4.14690637588501</v>
       </c>
     </row>
     <row r="654" spans="1:20">
@@ -41228,7 +41228,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T654">
-        <v>2.675668001174927</v>
+        <v>2.447106662</v>
       </c>
     </row>
     <row r="655" spans="1:20">
@@ -41476,7 +41476,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T658">
-        <v>4.475468082</v>
+        <v>4.316054344177246</v>
       </c>
     </row>
     <row r="659" spans="1:20">
@@ -41538,7 +41538,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T659">
-        <v>4.211317539215088</v>
+        <v>3.700747013092041</v>
       </c>
     </row>
     <row r="660" spans="1:20">
@@ -41600,7 +41600,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T660">
-        <v>3.768674850463867</v>
+        <v>3.583570241928101</v>
       </c>
     </row>
     <row r="661" spans="1:20">
@@ -41662,7 +41662,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T661">
-        <v>3.631387233734131</v>
+        <v>3.167098045349121</v>
       </c>
     </row>
     <row r="662" spans="1:20">
@@ -42034,7 +42034,7 @@
         <v>1.765384507535923</v>
       </c>
       <c r="T667">
-        <v>23.51782417297363</v>
+        <v>23.14179420471191</v>
       </c>
     </row>
     <row r="668" spans="1:20">
@@ -42344,7 +42344,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T672">
-        <v>52.15750885009766</v>
+        <v>52.71537017822266</v>
       </c>
     </row>
     <row r="673" spans="1:20">
@@ -42406,7 +42406,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T673">
-        <v>49.27313232421875</v>
+        <v>52.6966438293457</v>
       </c>
     </row>
     <row r="674" spans="1:20">
@@ -42468,7 +42468,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T674">
-        <v>45.2768669128418</v>
+        <v>50.83948516845703</v>
       </c>
     </row>
     <row r="675" spans="1:20">
@@ -42530,7 +42530,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T675">
-        <v>53.23020935058594</v>
+        <v>51.75424575805664</v>
       </c>
     </row>
     <row r="676" spans="1:20">
@@ -42592,7 +42592,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T676">
-        <v>53.69940185546875</v>
+        <v>56.89426422119141</v>
       </c>
     </row>
     <row r="677" spans="1:20">
@@ -42654,7 +42654,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T677">
-        <v>51.43932723999023</v>
+        <v>54.76468658447266</v>
       </c>
     </row>
     <row r="678" spans="1:20">
@@ -42716,7 +42716,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T678">
-        <v>49.79421997070312</v>
+        <v>54.21143341064453</v>
       </c>
     </row>
     <row r="679" spans="1:20">
@@ -42778,7 +42778,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T679">
-        <v>56.48359680175781</v>
+        <v>59.69151226</v>
       </c>
     </row>
     <row r="680" spans="1:20">
@@ -42840,7 +42840,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T680">
-        <v>51.06290435791016</v>
+        <v>54.53074264526367</v>
       </c>
     </row>
     <row r="681" spans="1:20">
@@ -42902,7 +42902,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T681">
-        <v>43.54742044</v>
+        <v>48.4633674621582</v>
       </c>
     </row>
     <row r="682" spans="1:20">
@@ -42964,7 +42964,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T682">
-        <v>9.921229362487793</v>
+        <v>9.672739028930664</v>
       </c>
     </row>
     <row r="683" spans="1:20">
@@ -43150,7 +43150,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T685">
-        <v>10.74951076507568</v>
+        <v>11.44841384887695</v>
       </c>
     </row>
     <row r="686" spans="1:20">
@@ -43336,7 +43336,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T688">
-        <v>9.838884353637695</v>
+        <v>10.00702285766602</v>
       </c>
     </row>
     <row r="689" spans="1:20">
@@ -43398,7 +43398,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T689">
-        <v>11.20854187011719</v>
+        <v>12.0685567855835</v>
       </c>
     </row>
     <row r="690" spans="1:20">
@@ -43460,7 +43460,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T690">
-        <v>9.318114280700684</v>
+        <v>8.975884437561035</v>
       </c>
     </row>
     <row r="691" spans="1:20">
@@ -43708,7 +43708,7 @@
         <v>2.127851421188627</v>
       </c>
       <c r="T694">
-        <v>5.615268707275391</v>
+        <v>5.670956611633301</v>
       </c>
     </row>
     <row r="695" spans="1:20">
@@ -44204,7 +44204,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T702">
-        <v>31.20438766479492</v>
+        <v>32.89941059</v>
       </c>
     </row>
     <row r="703" spans="1:20">
@@ -44328,7 +44328,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T704">
-        <v>29.42125701904297</v>
+        <v>31.63493156433105</v>
       </c>
     </row>
     <row r="705" spans="1:20">
@@ -44514,7 +44514,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T707">
-        <v>30.00321769714355</v>
+        <v>29.83691024780273</v>
       </c>
     </row>
     <row r="708" spans="1:20">
@@ -44576,7 +44576,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T708">
-        <v>31.2044620513916</v>
+        <v>32.34788513183594</v>
       </c>
     </row>
     <row r="709" spans="1:20">
@@ -44700,7 +44700,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T710">
-        <v>29.17416572570801</v>
+        <v>28.87283328</v>
       </c>
     </row>
     <row r="711" spans="1:20">
@@ -44762,7 +44762,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T711">
-        <v>32.41936492919922</v>
+        <v>32.89941059</v>
       </c>
     </row>
     <row r="712" spans="1:20">
@@ -44886,7 +44886,7 @@
         <v>1.675738683127567</v>
       </c>
       <c r="T713">
-        <v>6.380472660064697</v>
+        <v>7.190903186798096</v>
       </c>
     </row>
     <row r="714" spans="1:20">
@@ -44948,7 +44948,7 @@
         <v>1.675738683127567</v>
       </c>
       <c r="T714">
-        <v>7.383214473724365</v>
+        <v>7.466530005</v>
       </c>
     </row>
     <row r="715" spans="1:20">
@@ -45134,7 +45134,7 @@
         <v>1.675738683127567</v>
       </c>
       <c r="T717">
-        <v>6.17668226</v>
+        <v>6.23108959197998</v>
       </c>
     </row>
     <row r="718" spans="1:20">
@@ -45444,7 +45444,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T722">
-        <v>42.67757918</v>
+        <v>41.68680572509766</v>
       </c>
     </row>
     <row r="723" spans="1:20">
@@ -45506,7 +45506,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T723">
-        <v>38.26972198486328</v>
+        <v>34.66015243530273</v>
       </c>
     </row>
     <row r="724" spans="1:20">
@@ -45568,7 +45568,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T724">
-        <v>36.63242721557617</v>
+        <v>33.88874816894531</v>
       </c>
     </row>
     <row r="725" spans="1:20">
@@ -45630,7 +45630,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T725">
-        <v>37.43724060058594</v>
+        <v>34.86228179931641</v>
       </c>
     </row>
     <row r="726" spans="1:20">
@@ -45692,7 +45692,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T726">
-        <v>41.14680862426758</v>
+        <v>38.21673202514648</v>
       </c>
     </row>
     <row r="727" spans="1:20">
@@ -45754,7 +45754,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T727">
-        <v>41.82101821899414</v>
+        <v>37.50865936279297</v>
       </c>
     </row>
     <row r="728" spans="1:20">
@@ -45816,7 +45816,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T728">
-        <v>42.67757918</v>
+        <v>38.62928771972656</v>
       </c>
     </row>
     <row r="729" spans="1:20">
@@ -45878,7 +45878,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T729">
-        <v>39.22663879394531</v>
+        <v>38.64482498168945</v>
       </c>
     </row>
     <row r="730" spans="1:20">
@@ -45940,7 +45940,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T730">
-        <v>39.79703521728516</v>
+        <v>36.55837249755859</v>
       </c>
     </row>
     <row r="731" spans="1:20">
@@ -46002,7 +46002,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T731">
-        <v>38.51770401000977</v>
+        <v>34.45173645019531</v>
       </c>
     </row>
     <row r="732" spans="1:20">
@@ -46064,7 +46064,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T732">
-        <v>7.267430782318115</v>
+        <v>7.12841272354126</v>
       </c>
     </row>
     <row r="733" spans="1:20">
@@ -46126,7 +46126,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T733">
-        <v>6.333556652069092</v>
+        <v>6.934431076049805</v>
       </c>
     </row>
     <row r="734" spans="1:20">
@@ -46188,7 +46188,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T734">
-        <v>7.26869535446167</v>
+        <v>7.048164844512939</v>
       </c>
     </row>
     <row r="735" spans="1:20">
@@ -46312,7 +46312,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T736">
-        <v>7.037968158721924</v>
+        <v>6.865041732788086</v>
       </c>
     </row>
     <row r="737" spans="1:20">
@@ -46374,7 +46374,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T737">
-        <v>6.639382839202881</v>
+        <v>6.811441421508789</v>
       </c>
     </row>
     <row r="738" spans="1:20">
@@ -46436,7 +46436,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T738">
-        <v>7.075745582580566</v>
+        <v>6.876129627227783</v>
       </c>
     </row>
     <row r="739" spans="1:20">
@@ -46498,7 +46498,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T739">
-        <v>7.039497375488281</v>
+        <v>6.840842247009277</v>
       </c>
     </row>
     <row r="740" spans="1:20">
@@ -46560,7 +46560,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T740">
-        <v>7.203866004943848</v>
+        <v>7.102818012237549</v>
       </c>
     </row>
     <row r="741" spans="1:20">
@@ -46622,7 +46622,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T741">
-        <v>6.489805221557617</v>
+        <v>6.708137989044189</v>
       </c>
     </row>
     <row r="742" spans="1:20">
@@ -47304,7 +47304,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T752">
-        <v>48.6386833190918</v>
+        <v>41.61406326293945</v>
       </c>
     </row>
     <row r="753" spans="1:20">
@@ -47366,7 +47366,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T753">
-        <v>46.78520965576172</v>
+        <v>45.24644470214844</v>
       </c>
     </row>
     <row r="754" spans="1:20">
@@ -47428,7 +47428,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T754">
-        <v>45.74097442626953</v>
+        <v>42.49491119384766</v>
       </c>
     </row>
     <row r="755" spans="1:20">
@@ -47490,7 +47490,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T755">
-        <v>42.27757263183594</v>
+        <v>40.79685974121094</v>
       </c>
     </row>
     <row r="756" spans="1:20">
@@ -47552,7 +47552,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T756">
-        <v>44.43067169189453</v>
+        <v>44.50233840942383</v>
       </c>
     </row>
     <row r="757" spans="1:20">
@@ -47614,7 +47614,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T757">
-        <v>39.79242706298828</v>
+        <v>41.45363235473633</v>
       </c>
     </row>
     <row r="758" spans="1:20">
@@ -47676,7 +47676,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T758">
-        <v>42.94686126708984</v>
+        <v>41.20767974853516</v>
       </c>
     </row>
     <row r="759" spans="1:20">
@@ -47738,7 +47738,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T759">
-        <v>50.31500625610352</v>
+        <v>49.90854644775391</v>
       </c>
     </row>
     <row r="760" spans="1:20">
@@ -47800,7 +47800,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T760">
-        <v>45.0802001953125</v>
+        <v>38.83119201660156</v>
       </c>
     </row>
     <row r="761" spans="1:20">
@@ -47862,7 +47862,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T761">
-        <v>44.15730285644531</v>
+        <v>43.85248947143555</v>
       </c>
     </row>
     <row r="762" spans="1:20">
@@ -47924,7 +47924,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T762">
-        <v>6.367367267608643</v>
+        <v>6.651233196258545</v>
       </c>
     </row>
     <row r="763" spans="1:20">
@@ -47986,7 +47986,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T763">
-        <v>6.502202987670898</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="764" spans="1:20">
@@ -48048,7 +48048,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T764">
-        <v>6.115019798278809</v>
+        <v>6.225260257720947</v>
       </c>
     </row>
     <row r="765" spans="1:20">
@@ -48172,7 +48172,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T766">
-        <v>6.730749130249023</v>
+        <v>6.438918590545654</v>
       </c>
     </row>
     <row r="767" spans="1:20">
@@ -48358,7 +48358,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T769">
-        <v>6.258773803710938</v>
+        <v>6.320709705352783</v>
       </c>
     </row>
     <row r="770" spans="1:20">
@@ -48420,7 +48420,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T770">
-        <v>6.546629428863525</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="771" spans="1:20">
@@ -48482,7 +48482,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T771">
-        <v>6.281732082366943</v>
+        <v>6.550060749053955</v>
       </c>
     </row>
     <row r="772" spans="1:20">
@@ -48544,7 +48544,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T772">
-        <v>7.84079647064209</v>
+        <v>7.783699989318848</v>
       </c>
     </row>
     <row r="773" spans="1:20">
@@ -48606,7 +48606,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T773">
-        <v>8.072464942932129</v>
+        <v>7.46825647354126</v>
       </c>
     </row>
     <row r="774" spans="1:20">
@@ -48668,7 +48668,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T774">
-        <v>8.240237236022949</v>
+        <v>7.647261142730713</v>
       </c>
     </row>
     <row r="775" spans="1:20">
@@ -48730,7 +48730,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T775">
-        <v>8.644003868103027</v>
+        <v>8.341119766235352</v>
       </c>
     </row>
     <row r="776" spans="1:20">
@@ -48792,7 +48792,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T776">
-        <v>6.962869644165039</v>
+        <v>7.228044986724854</v>
       </c>
     </row>
     <row r="777" spans="1:20">
@@ -48854,7 +48854,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T777">
-        <v>7.636602401733398</v>
+        <v>7.448592185974121</v>
       </c>
     </row>
     <row r="778" spans="1:20">
@@ -48916,7 +48916,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T778">
-        <v>7.918728828430176</v>
+        <v>7.693029403686523</v>
       </c>
     </row>
     <row r="779" spans="1:20">
@@ -48978,7 +48978,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T779">
-        <v>6.960552215576172</v>
+        <v>7.195669174194336</v>
       </c>
     </row>
     <row r="780" spans="1:20">
@@ -49040,7 +49040,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T780">
-        <v>7.309335708618164</v>
+        <v>7.354048728942871</v>
       </c>
     </row>
     <row r="781" spans="1:20">
@@ -49102,7 +49102,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T781">
-        <v>7.582865715026855</v>
+        <v>7.390662670135498</v>
       </c>
     </row>
     <row r="782" spans="1:20">
@@ -49226,7 +49226,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T783">
-        <v>18.65488624572754</v>
+        <v>18.30188941955566</v>
       </c>
     </row>
     <row r="784" spans="1:20">
@@ -49288,7 +49288,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T784">
-        <v>18.50182914733887</v>
+        <v>18.12845230102539</v>
       </c>
     </row>
     <row r="785" spans="1:20">
@@ -49350,7 +49350,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T785">
-        <v>21.48369598388672</v>
+        <v>21.28837013244629</v>
       </c>
     </row>
     <row r="786" spans="1:20">
@@ -49412,7 +49412,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T786">
-        <v>17.91349601745605</v>
+        <v>18.02740097045898</v>
       </c>
     </row>
     <row r="787" spans="1:20">
@@ -49474,7 +49474,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T787">
-        <v>21.55901908874512</v>
+        <v>21.34017181396484</v>
       </c>
     </row>
     <row r="788" spans="1:20">
@@ -49536,7 +49536,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T788">
-        <v>21.13461303710938</v>
+        <v>20.86405372619629</v>
       </c>
     </row>
     <row r="789" spans="1:20">
@@ -49598,7 +49598,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T789">
-        <v>18.26873779296875</v>
+        <v>18.1077766418457</v>
       </c>
     </row>
     <row r="790" spans="1:20">
@@ -49660,7 +49660,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T790">
-        <v>19.06464004516602</v>
+        <v>18.84603881835938</v>
       </c>
     </row>
     <row r="791" spans="1:20">
@@ -49722,7 +49722,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T791">
-        <v>19.39319610595703</v>
+        <v>18.95844268798828</v>
       </c>
     </row>
     <row r="792" spans="1:20">
@@ -49970,7 +49970,7 @@
         <v>1.649771380471375</v>
       </c>
       <c r="T795">
-        <v>14.65115833282471</v>
+        <v>14.96640992</v>
       </c>
     </row>
     <row r="796" spans="1:20">
@@ -50342,7 +50342,7 @@
         <v>1.649771380471375</v>
       </c>
       <c r="T801">
-        <v>14.004638671875</v>
+        <v>14.79078674316406</v>
       </c>
     </row>
     <row r="802" spans="1:20">
@@ -50404,7 +50404,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T802">
-        <v>16.18609428405762</v>
+        <v>16.03028297424316</v>
       </c>
     </row>
     <row r="803" spans="1:20">
@@ -50466,7 +50466,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T803">
-        <v>13.58354949951172</v>
+        <v>12.60145378112793</v>
       </c>
     </row>
     <row r="804" spans="1:20">
@@ -50528,7 +50528,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T804">
-        <v>13.52387809753418</v>
+        <v>13.21761894226074</v>
       </c>
     </row>
     <row r="805" spans="1:20">
@@ -50652,7 +50652,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T806">
-        <v>12.85942268371582</v>
+        <v>12.66521644592285</v>
       </c>
     </row>
     <row r="807" spans="1:20">
@@ -50714,7 +50714,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T807">
-        <v>12.28010559082031</v>
+        <v>11.87646198272705</v>
       </c>
     </row>
     <row r="808" spans="1:20">
@@ -50776,7 +50776,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T808">
-        <v>13.72690391540527</v>
+        <v>16.32146738</v>
       </c>
     </row>
     <row r="809" spans="1:20">
@@ -50838,7 +50838,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T809">
-        <v>12.52275657653809</v>
+        <v>16.32146738</v>
       </c>
     </row>
     <row r="810" spans="1:20">
@@ -50900,7 +50900,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T810">
-        <v>14.29683876037598</v>
+        <v>13.84418773651123</v>
       </c>
     </row>
     <row r="811" spans="1:20">
@@ -50962,7 +50962,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T811">
-        <v>11.97227001190186</v>
+        <v>11.4166316986084</v>
       </c>
     </row>
     <row r="812" spans="1:20">
